--- a/data/source/industries/ship_building_and_repairing.xlsx
+++ b/data/source/industries/ship_building_and_repairing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\output\07_ship building and repairing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\coding_projects\bls_data\data\source\industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA38AD7-6E93-41CA-97B7-47EA5FFA5A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7853F1-54DF-419E-9F95-058025176385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3 G3 I3:J3 L3:M3 K4 D5:F5 I5:J5 L5:M5 G6 K6 I7 K7:M7 D7:D8 J7:J8 F9 K9:M9 D10 J10 F11 L11:M11 D12 J12 F13 K13:M13 D14 J14 K15:M15 E16:F16 D17 G17 J17:L17 F18 I18 B19:D19 J19:K19 M19 B20:C20 F20 L20 B21:D21 H19:H21 J21:K21 M21 B22:C22 F22:H22 L22 B23:D23 F23:K23 M23 B24:C24 G24:I24 L24 B25:D25 F25:K25 M25 B26:C26 E21:E26 G26:I26 K26:L26 B27:I27 M27 B28:E28 G28:J28 L28 B29:C29 E29:F29 G29:I30 K29 M29 B30:E30 L30 B31:C31 E31:I31 K31 M31 B32:J32 L32 B33:C33 E33:K33 M33 B34:D34 E34:M35 B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,17 +484,35 @@
       <c r="C3">
         <v>3.6</v>
       </c>
+      <c r="D3">
+        <v>97.1</v>
+      </c>
       <c r="E3">
         <v>106.23</v>
       </c>
       <c r="F3">
         <v>2.71</v>
       </c>
+      <c r="G3">
+        <v>39.200000000000003</v>
+      </c>
       <c r="H3" t="s">
         <v>13</v>
+      </c>
+      <c r="I3">
+        <v>11.1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
       </c>
       <c r="K3">
         <v>11.4</v>
+      </c>
+      <c r="L3">
+        <v>1.6</v>
+      </c>
+      <c r="M3">
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -508,7 +526,7 @@
         <v>3.5</v>
       </c>
       <c r="D4">
-        <v>97.1</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>110.43</v>
@@ -517,22 +535,25 @@
         <v>2.81</v>
       </c>
       <c r="G4">
-        <v>39.200000000000003</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>3.6</v>
+      </c>
+      <c r="K4">
+        <v>11.2</v>
       </c>
       <c r="L4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="M4">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -545,14 +566,35 @@
       <c r="C5">
         <v>3.6</v>
       </c>
+      <c r="D5">
+        <v>96.3</v>
+      </c>
+      <c r="E5">
+        <v>117.2</v>
+      </c>
+      <c r="F5">
+        <v>2.93</v>
+      </c>
       <c r="G5">
-        <v>39.299999999999997</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="I5">
+        <v>10.5</v>
+      </c>
+      <c r="J5">
+        <v>3.3</v>
+      </c>
       <c r="K5">
-        <v>11.2</v>
+        <v>10.8</v>
+      </c>
+      <c r="L5">
+        <v>1.6</v>
+      </c>
+      <c r="M5">
+        <v>8.6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -566,28 +608,34 @@
         <v>3.5</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>96.4</v>
       </c>
       <c r="E6">
-        <v>117.2</v>
+        <v>121.6</v>
       </c>
       <c r="F6">
-        <v>2.93</v>
+        <v>3.01</v>
+      </c>
+      <c r="G6">
+        <v>40.4</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6">
-        <v>11.4</v>
+        <v>10.3</v>
       </c>
       <c r="J6">
-        <v>3.6</v>
+        <v>3.2</v>
+      </c>
+      <c r="K6">
+        <v>10.199999999999999</v>
       </c>
       <c r="L6">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M6">
-        <v>8.8000000000000007</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -600,17 +648,35 @@
       <c r="C7">
         <v>3.6</v>
       </c>
+      <c r="D7">
+        <v>97.4</v>
+      </c>
       <c r="E7">
-        <v>121.6</v>
+        <v>127.92</v>
       </c>
       <c r="F7">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J7">
+        <v>3.6</v>
+      </c>
+      <c r="K7">
+        <v>10.6</v>
+      </c>
+      <c r="L7">
+        <v>1.6</v>
+      </c>
+      <c r="M7">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -623,29 +689,35 @@
       <c r="C8">
         <v>3.7</v>
       </c>
+      <c r="D8">
+        <v>97.9</v>
+      </c>
       <c r="E8">
-        <v>127.92</v>
+        <v>128.21</v>
       </c>
       <c r="F8">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="G8">
-        <v>40.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8">
-        <v>10.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="J8">
+        <v>4.8</v>
       </c>
       <c r="K8">
-        <v>10.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -659,22 +731,34 @@
         <v>3.9</v>
       </c>
       <c r="D9">
-        <v>96.3</v>
+        <v>108</v>
       </c>
       <c r="E9">
-        <v>128.21</v>
+        <v>127.98</v>
+      </c>
+      <c r="F9">
+        <v>3.16</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9">
-        <v>10.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J9">
-        <v>3.3</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M9">
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -687,29 +771,35 @@
       <c r="C10">
         <v>4.5</v>
       </c>
+      <c r="D10">
+        <v>119.5</v>
+      </c>
       <c r="E10">
-        <v>127.98</v>
+        <v>137.78</v>
       </c>
       <c r="F10">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="G10">
-        <v>40.700000000000003</v>
+        <v>41.5</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="L10">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -723,10 +813,13 @@
         <v>5.4</v>
       </c>
       <c r="D11">
-        <v>96.4</v>
+        <v>114.8</v>
       </c>
       <c r="E11">
-        <v>137.78</v>
+        <v>139.32</v>
+      </c>
+      <c r="F11">
+        <v>3.44</v>
       </c>
       <c r="G11">
         <v>40.5</v>
@@ -735,13 +828,19 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="J11">
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K11">
-        <v>10.6</v>
+        <v>8.9</v>
+      </c>
+      <c r="L11">
+        <v>2.4</v>
+      </c>
+      <c r="M11">
+        <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -754,29 +853,35 @@
       <c r="C12">
         <v>5.5</v>
       </c>
+      <c r="D12">
+        <v>115.4</v>
+      </c>
       <c r="E12">
-        <v>139.32</v>
+        <v>144.99</v>
       </c>
       <c r="F12">
-        <v>3.16</v>
+        <v>3.58</v>
       </c>
       <c r="G12">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12">
-        <v>9.8000000000000007</v>
+        <v>9.1</v>
+      </c>
+      <c r="J12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="K12">
-        <v>10.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L12">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="M12">
-        <v>8.1999999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,22 +895,34 @@
         <v>5.8</v>
       </c>
       <c r="D13">
-        <v>97.4</v>
+        <v>115.7</v>
       </c>
       <c r="E13">
-        <v>144.99</v>
+        <v>155.07</v>
+      </c>
+      <c r="F13">
+        <v>3.81</v>
       </c>
       <c r="G13">
-        <v>40.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13">
-        <v>8.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J13">
-        <v>3.6</v>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -818,29 +935,35 @@
       <c r="C14">
         <v>5.6</v>
       </c>
+      <c r="D14">
+        <v>106.7</v>
+      </c>
       <c r="E14">
-        <v>155.07</v>
+        <v>158</v>
       </c>
       <c r="F14">
-        <v>3.32</v>
+        <v>3.96</v>
       </c>
       <c r="G14">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14">
-        <v>8.6</v>
+        <v>7.3</v>
+      </c>
+      <c r="J14">
+        <v>3.7</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="L14">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M14">
-        <v>7.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -854,25 +977,34 @@
         <v>5.8</v>
       </c>
       <c r="D15">
-        <v>97.9</v>
+        <v>104.7</v>
       </c>
       <c r="E15">
-        <v>158</v>
+        <v>162.74</v>
       </c>
       <c r="F15">
-        <v>3.44</v>
+        <v>4.12</v>
       </c>
       <c r="G15">
-        <v>40.700000000000003</v>
+        <v>39.5</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
       </c>
       <c r="I15">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="J15">
-        <v>4.8</v>
+        <v>3.9</v>
+      </c>
+      <c r="K15">
+        <v>8.6</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>5.3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -886,28 +1018,34 @@
         <v>6.8</v>
       </c>
       <c r="D16">
-        <v>108</v>
+        <v>109.8</v>
+      </c>
+      <c r="E16">
+        <v>172.66</v>
+      </c>
+      <c r="F16">
+        <v>4.3600000000000003</v>
       </c>
       <c r="G16">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="J16">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="K16">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="L16">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="M16">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -920,20 +1058,35 @@
       <c r="C17">
         <v>8.3000000000000007</v>
       </c>
+      <c r="D17">
+        <v>114</v>
+      </c>
       <c r="E17">
-        <v>162.74</v>
+        <v>178.41</v>
       </c>
       <c r="F17">
-        <v>3.58</v>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G17">
+        <v>38.700000000000003</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17">
-        <v>7.3</v>
+        <v>7.9</v>
+      </c>
+      <c r="J17">
+        <v>4.8</v>
+      </c>
+      <c r="K17">
+        <v>7.5</v>
+      </c>
+      <c r="L17">
+        <v>2.7</v>
       </c>
       <c r="M17">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,219 +1100,34 @@
         <v>10.3</v>
       </c>
       <c r="D18">
-        <v>119.5</v>
+        <v>121.2</v>
       </c>
       <c r="E18">
-        <v>172.66</v>
+        <v>189.74</v>
+      </c>
+      <c r="F18">
+        <v>4.9800000000000004</v>
       </c>
       <c r="G18">
-        <v>39.5</v>
+        <v>38.1</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
+      <c r="I18">
+        <v>7.4</v>
+      </c>
       <c r="J18">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K18">
-        <v>8.9</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M18">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>178.41</v>
-      </c>
-      <c r="F19">
-        <v>3.81</v>
-      </c>
-      <c r="G19">
-        <v>39.6</v>
-      </c>
-      <c r="I19">
-        <v>8.6</v>
-      </c>
-      <c r="L19">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>114.8</v>
-      </c>
-      <c r="E20">
-        <v>189.74</v>
-      </c>
-      <c r="G20">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="I20">
-        <v>8.1</v>
-      </c>
-      <c r="J20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K20">
-        <v>8.6</v>
-      </c>
-      <c r="M20">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>3.96</v>
-      </c>
-      <c r="G21">
-        <v>38.1</v>
-      </c>
-      <c r="I21">
-        <v>7.9</v>
-      </c>
-      <c r="L21">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>115.4</v>
-      </c>
-      <c r="I22">
-        <v>7.4</v>
-      </c>
-      <c r="J22">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K22">
-        <v>8</v>
-      </c>
-      <c r="M22">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>115.7</v>
-      </c>
-      <c r="F24">
-        <v>4.12</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>8.1</v>
-      </c>
-      <c r="M24">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L25">
         <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>106.7</v>
-      </c>
-      <c r="F26">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="J26">
-        <v>3.7</v>
-      </c>
-      <c r="M26">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J27">
-        <v>3.9</v>
-      </c>
-      <c r="K27">
-        <v>8.6</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="K28">
-        <v>7.8</v>
-      </c>
-      <c r="M28">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>104.7</v>
-      </c>
-      <c r="J29">
-        <v>3.9</v>
-      </c>
-      <c r="L29">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="J30">
-        <v>4.8</v>
-      </c>
-      <c r="K30">
-        <v>7.5</v>
-      </c>
-      <c r="M30">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>109.8</v>
-      </c>
-      <c r="J31">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L31">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K32">
-        <v>6.5</v>
-      </c>
-      <c r="M32">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>114</v>
-      </c>
-      <c r="L33">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>121.2</v>
       </c>
     </row>
   </sheetData>
